--- a/config/fish_design.xlsx
+++ b/config/fish_design.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8AA382-D0D5-43CD-BC33-9829A02D561F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,83 +25,83 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
   <si>
     <t>购买价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单次金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>每秒金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>秒数/圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>回收价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看视频为当前消耗2倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直接购买等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直接购买金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>15K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>18K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>21K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>25K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>价格/每秒金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奖励/秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单次奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K</t>
@@ -118,59 +117,59 @@
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>INT(初始金额*POWER(1.17,购买次数-1)+0.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>回收金额 = 当前单次购买价格×0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>双倍时间：5分钟，每秒金钱X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宝箱价格=当前最大购买价格X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>唯一标示</t>
@@ -180,22 +179,22 @@
   </si>
   <si>
     <t>基础购买金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奖励/秒</t>
   </si>
   <si>
     <t>单圈奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>单圈秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>购买需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
@@ -214,7 +213,7 @@
       </rPr>
       <t>um</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
@@ -227,7 +226,7 @@
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -243,7 +242,7 @@
       </rPr>
       <t>oin_per_sec</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,11 +258,11 @@
       </rPr>
       <t>oin_per_round</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>req_scene</t>
@@ -276,59 +275,59 @@
   </si>
   <si>
     <t>req_buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>游戏规则：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.初始金币1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2.初始可以购买第1种蛋糕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3.当玩家成功合成第N（N&gt;2)种蛋糕时，商店里开放N-1种蛋糕直接购买，见”req_buy“字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4.回收蛋糕的价格为，当前蛋糕回收金额 = 当前蛋糕单次购买价格×0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5.2倍金币激活持续时间为5分钟，每秒获得金币数总和 X 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7.特定蛋糕购买的单次价格计算 = ROUND( 该蛋糕初始金额×1.17^(该蛋糕购买次数-1)）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     7.1 例如1号蛋糕初始购买金额为10，该蛋糕购买第10次的价格为，round(10×1.17^(10-1))=round(10×1.17^9)。3号蛋糕初始购买金额为250，该蛋糕购买第9次的价格为round(250×1.17^8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8.蛋糕合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    8.1 2个N级的蛋糕可以合成1个N+1级的蛋糕（合成后2个N级的蛋糕消失，生成1个N+1级的蛋糕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    8.1 蛋糕种类为12级，第12级的蛋糕无法合成（没有第13级蛋糕）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9.蛋糕放置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6.当前每秒蛋糕售价 = SUM（所有正在出售蛋糕的每秒售价）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -378,7 +377,7 @@
       </rPr>
       <t>上出售时，蛋糕立刻开始计算每秒售价</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -428,7 +427,7 @@
       </rPr>
       <t>上占据位置（呈现半透明状态）</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -500,23 +499,23 @@
       </rPr>
       <t>，该蛋糕的每秒售价也同时被移除</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.离线收益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    10.2     玩家离线收入&gt;500时才显示玩家当前离线收入弹出框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    10.1  （玩家上线时间 - 玩家离线时间）× 总售价每秒 ×80%  = 玩家离线收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11. 蛋糕移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -566,11 +565,11 @@
       </rPr>
       <t>最多放置16个蛋糕</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    11.1  蛋糕按照一定速率从左到右移动，移动到最右侧消失后会立刻从最左侧继续移动出来，永久反复此类动作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>售价/秒</t>
@@ -580,28 +579,35 @@
   </si>
   <si>
     <t xml:space="preserve">    11.3  蛋糕移动在桌子中间时开始显示上飘金币数字，该数字为当前蛋糕的单圈售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">    11.2  2倍金币时间内，蛋糕移动速度变为2倍。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数量级简写字母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -796,16 +802,16 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1102,29 +1108,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T2:T13"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25:R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.88671875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" customWidth="1"/>
-    <col min="24" max="24" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="21.25" customWidth="1"/>
+    <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="13.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="14.25" customWidth="1"/>
+    <col min="24" max="24" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
       <c r="F3">
         <v>2</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>11700</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>13689</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>16016</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>18739</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>21924</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>25652</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>6002</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>8217</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>9614</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>11248</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>13160</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>15397</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>435小时</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
@@ -2232,7 +2238,7 @@
         <v>759小时</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>9</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>1608小时</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>18</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>3952小时</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>10</v>
       </c>
@@ -2355,7 +2361,7 @@
         <v>9175小时</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>20</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>21288小时</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>11</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>49294小时</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>22</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>110514小时</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>12</v>
       </c>
@@ -2517,7 +2523,10 @@
         <v>257038小时</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>13</v>
+      </c>
       <c r="F25">
         <v>24</v>
       </c>
@@ -2556,7 +2565,10 @@
         <v>5639768小时</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>14</v>
+      </c>
       <c r="F26">
         <v>25</v>
       </c>
@@ -2595,7 +2607,10 @@
         <v>134727786小时</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>15</v>
+      </c>
       <c r="F27">
         <v>26</v>
       </c>
@@ -2634,7 +2649,10 @@
         <v>3021994905小时</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>16</v>
+      </c>
       <c r="F28">
         <v>27</v>
       </c>
@@ -2666,14 +2684,14 @@
       </c>
       <c r="W28" s="5">
         <f t="shared" si="4"/>
-        <v>24175959304382.063</v>
+        <v>24175959304382.062</v>
       </c>
       <c r="X28" s="4" t="str">
         <f t="shared" si="5"/>
         <v>6715544251小时</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>28</v>
       </c>
@@ -2712,7 +2730,7 @@
         <v>16322503387小时</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>29</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>13937940141小时</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>30</v>
       </c>
@@ -2791,28 +2809,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060AC4F4-4DBD-4472-88CA-427FB4CBD576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>1</v>
       </c>
@@ -2912,7 +2930,7 @@
         <v>10秒</v>
       </c>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>2</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>222秒</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>3</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>414秒</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>4</v>
       </c>
@@ -3074,7 +3092,7 @@
         <v>2461秒</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>5</v>
       </c>
@@ -3119,7 +3137,7 @@
         <v>3小时</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>6</v>
       </c>
@@ -3160,7 +3178,7 @@
         <v>15小时</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>7</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>159小时</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>8</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>435小时</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>9</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>1608小时</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>10</v>
       </c>
@@ -3324,7 +3342,7 @@
         <v>9175小时</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>11</v>
       </c>
@@ -3365,7 +3383,7 @@
         <v>49294小时</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>12</v>
       </c>
@@ -3407,22 +3425,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065B0686-8C32-4700-B1BF-7B1064DA68A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -3445,7 +3463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -3468,7 +3486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -3491,7 +3509,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -3538,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -3587,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -3610,7 +3628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>5</v>
       </c>
@@ -3636,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>6</v>
       </c>
@@ -3659,7 +3677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>7</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>8</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>9</v>
       </c>
@@ -3734,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>10</v>
       </c>
@@ -3757,7 +3775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>11</v>
       </c>
@@ -3783,7 +3801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>12</v>
       </c>
@@ -3806,7 +3824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>13</v>
       </c>
@@ -3832,7 +3850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>14</v>
       </c>
@@ -3855,7 +3873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>15</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>16</v>
       </c>
@@ -3904,7 +3922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>17</v>
       </c>
@@ -3930,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>18</v>
       </c>
@@ -3953,7 +3971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>19</v>
       </c>
@@ -3979,7 +3997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>20</v>
       </c>
@@ -4002,7 +4020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>21</v>
       </c>
@@ -4028,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>22</v>
       </c>
@@ -4051,7 +4069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>23</v>
       </c>
@@ -4077,7 +4095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>24</v>
       </c>
@@ -4100,7 +4118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>25</v>
       </c>
@@ -4123,7 +4141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>26</v>
       </c>
@@ -4146,7 +4164,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>27</v>
       </c>
@@ -4167,7 +4185,7 @@
       </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>28</v>
       </c>
@@ -4188,7 +4206,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>29</v>
       </c>
@@ -4209,7 +4227,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>30</v>
       </c>
@@ -4231,28 +4249,28 @@
       <c r="G34" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF3771D-4124-4495-8641-9C235532F731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -4279,7 +4297,7 @@
       </c>
       <c r="K1" s="26"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4308,7 +4326,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>48</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>55</v>
       </c>
@@ -4366,7 +4384,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>1000000000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -4451,7 +4469,7 @@
         <v>1E+18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -4481,7 +4499,7 @@
         <v>1E+21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -4511,7 +4529,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>1E+27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -4571,7 +4589,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>1.0000000000000001E+33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -4631,7 +4649,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -4661,7 +4679,7 @@
         <v>1.0000000000000001E+39</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -4691,7 +4709,7 @@
         <v>1E+42</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -4712,8 +4730,8 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
         <v>58</v>
@@ -4734,7 +4752,7 @@
       <c r="P18" s="18"/>
       <c r="R18" s="19"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>59</v>
@@ -4755,7 +4773,7 @@
       <c r="P19" s="21"/>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>60</v>
@@ -4776,7 +4794,7 @@
       <c r="P20" s="21"/>
       <c r="R20" s="22"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>61</v>
@@ -4797,7 +4815,7 @@
       <c r="P21" s="21"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>62</v>
@@ -4818,7 +4836,7 @@
       <c r="P22" s="21"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>63</v>
@@ -4839,7 +4857,7 @@
       <c r="P23" s="21"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
         <v>70</v>
@@ -4860,7 +4878,7 @@
       <c r="P24" s="21"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
         <v>64</v>
@@ -4881,7 +4899,7 @@
       <c r="P25" s="21"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="21" t="s">
         <v>65</v>
@@ -4902,7 +4920,7 @@
       <c r="P26" s="21"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
         <v>66</v>
@@ -4923,7 +4941,7 @@
       <c r="P27" s="21"/>
       <c r="R27" s="22"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
         <v>67</v>
@@ -4944,7 +4962,7 @@
       <c r="P28" s="21"/>
       <c r="R28" s="22"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
         <v>68</v>
@@ -4965,7 +4983,7 @@
       <c r="P29" s="21"/>
       <c r="R29" s="22"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="21" t="s">
         <v>69</v>
@@ -4986,7 +5004,7 @@
       <c r="P30" s="21"/>
       <c r="R30" s="22"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
         <v>71</v>
@@ -5007,7 +5025,7 @@
       <c r="P31" s="21"/>
       <c r="R31" s="22"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
         <v>72</v>
@@ -5028,7 +5046,7 @@
       <c r="P32" s="21"/>
       <c r="R32" s="22"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="21" t="s">
         <v>73</v>
@@ -5049,7 +5067,7 @@
       <c r="P33" s="21"/>
       <c r="R33" s="22"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="21" t="s">
         <v>78</v>
@@ -5070,7 +5088,7 @@
       <c r="P34" s="21"/>
       <c r="R34" s="22"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
         <v>74</v>
@@ -5091,7 +5109,7 @@
       <c r="P35" s="21"/>
       <c r="R35" s="22"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="21" t="s">
         <v>76</v>
@@ -5112,7 +5130,7 @@
       <c r="P36" s="21"/>
       <c r="R36" s="22"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="21" t="s">
         <v>75</v>
@@ -5133,7 +5151,7 @@
       <c r="P37" s="21"/>
       <c r="R37" s="22"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="21" t="s">
         <v>77</v>
@@ -5154,7 +5172,7 @@
       <c r="P38" s="21"/>
       <c r="R38" s="22"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="21" t="s">
         <v>79</v>
@@ -5175,7 +5193,7 @@
       <c r="P39" s="21"/>
       <c r="R39" s="22"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
         <v>83</v>
@@ -5196,7 +5214,7 @@
       <c r="P40" s="21"/>
       <c r="R40" s="22"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
         <v>82</v>
@@ -5217,7 +5235,7 @@
       <c r="P41" s="21"/>
       <c r="R41" s="22"/>
     </row>
-    <row r="42" spans="1:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -5241,7 +5259,7 @@
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/fish_design.xlsx
+++ b/config/fish_design.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="154">
   <si>
     <t>购买价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -589,12 +590,225 @@
     <t>数量级简写字母</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>coin_per_sec</t>
+  </si>
+  <si>
+    <t>coin_per_round</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>req_buy</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>无尽奢华，时光挚爱。</t>
+  </si>
+  <si>
+    <t>粉红小猪</t>
+  </si>
+  <si>
+    <t>给您一个表达爱的方式。</t>
+  </si>
+  <si>
+    <t>提拉米苏の语</t>
+  </si>
+  <si>
+    <t>层层叠叠的各种甜味。</t>
+  </si>
+  <si>
+    <t>千层摩卡</t>
+  </si>
+  <si>
+    <t>夹心的炼乳美味沁入心田。</t>
+  </si>
+  <si>
+    <t>灰夹子</t>
+  </si>
+  <si>
+    <t>享受人间美好的双排夹心蛋糕。</t>
+  </si>
+  <si>
+    <t>鸳鸯扣</t>
+  </si>
+  <si>
+    <t>用“心”制作每一份甜蜜。</t>
+  </si>
+  <si>
+    <t>甜蜜城堡</t>
+  </si>
+  <si>
+    <t>黑白双色的幸福游乐场。</t>
+  </si>
+  <si>
+    <t>黑白乐园</t>
+  </si>
+  <si>
+    <t>为你制作初恋般感觉的蛋糕。</t>
+  </si>
+  <si>
+    <t>酥心</t>
+  </si>
+  <si>
+    <t>以和为贵，和出精彩。</t>
+  </si>
+  <si>
+    <t>巧克力物语</t>
+  </si>
+  <si>
+    <t>用蛋糕传达情意。</t>
+  </si>
+  <si>
+    <t>爱的旋律</t>
+  </si>
+  <si>
+    <t>吃在嘴里的是蛋糕，留在心底的是百福。</t>
+  </si>
+  <si>
+    <t>巴厘岛之恋</t>
+  </si>
+  <si>
+    <t>味在香甜，意在初恋。</t>
+  </si>
+  <si>
+    <t>鲜果塔</t>
+  </si>
+  <si>
+    <t>苦苦的追求，甜甜的享受！</t>
+  </si>
+  <si>
+    <t>悉尼之风</t>
+  </si>
+  <si>
+    <t>一生挚爱，私享奢华。</t>
+  </si>
+  <si>
+    <t>马卡龙の吻</t>
+  </si>
+  <si>
+    <t>用年轮陪伴你的美味佳肴。</t>
+  </si>
+  <si>
+    <t>橙色幻想</t>
+  </si>
+  <si>
+    <t>想吃的连呼吸都忘了。</t>
+  </si>
+  <si>
+    <t>梦の甜</t>
+  </si>
+  <si>
+    <t>浅草</t>
+  </si>
+  <si>
+    <t>清境</t>
+  </si>
+  <si>
+    <t>黑白巧克力慕斯</t>
+  </si>
+  <si>
+    <t>芒果慕斯</t>
+  </si>
+  <si>
+    <t>百利甜情人</t>
+  </si>
+  <si>
+    <t>榴莲飘飘</t>
+  </si>
+  <si>
+    <t>杏儿</t>
+  </si>
+  <si>
+    <t>芒果奶油蛋糕</t>
+  </si>
+  <si>
+    <t>百香果酸乳酪慕斯</t>
+  </si>
+  <si>
+    <t>心语心愿</t>
+  </si>
+  <si>
+    <t>朗姆芝士</t>
+  </si>
+  <si>
+    <t>松仁淡奶</t>
+  </si>
+  <si>
+    <t>东方栗融</t>
+  </si>
+  <si>
+    <t>深艾尔</t>
+  </si>
+  <si>
+    <t>中国绿茶与爽脆果实，工笔勾勒一杯好茶</t>
+  </si>
+  <si>
+    <t>当薄荷的清新，遇上青柠的淡香</t>
+  </si>
+  <si>
+    <t>巧克力弹奏的精巧和弦</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果美味融化成金色光谱</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔和奶酒混入玫瑰的优雅得到了热恋的味道</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴莲的滋味让你忘却了时间的流逝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>温暖、绵延，日常题材的一闪灵感</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰淇淋口感，不同层次的酸与冰凉</t>
+  </si>
+  <si>
+    <t>有情人，效仿果实的成熟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>香滑的乳酪与打开的一瓶波多黎各朗姆酒</t>
+  </si>
+  <si>
+    <t>奶油与坚果的和谐、轻甜</t>
+  </si>
+  <si>
+    <t>微凉的，先来一口，不知者不怪。</t>
+  </si>
+  <si>
+    <t>四种精酿啤酒，搭配酸樱桃果酱，风味独特</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +845,17 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -785,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -828,6 +1053,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,28 +1340,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AF31"/>
+  <dimension ref="B1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25:R29"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
     <col min="11" max="11" width="21.25" customWidth="1"/>
     <col min="12" max="12" width="13.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.25" customWidth="1"/>
-    <col min="24" max="24" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.875" customWidth="1"/>
+    <col min="19" max="21" width="13.875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.125" customWidth="1"/>
+    <col min="23" max="23" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1164,18 +1395,17 @@
       <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="W1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.2">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1213,49 +1443,48 @@
         <v>5</v>
       </c>
       <c r="S2" s="3">
-        <f>ROUNDUP(10*POWER(2.16,F2-1),-1)</f>
+        <f>ROUNDUP(5*POWER(2.16,F2-1),-1)</f>
         <v>10</v>
       </c>
       <c r="T2" s="3">
         <f>ROUNDUP(R2*S2,-1)</f>
         <v>50</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3">
+      <c r="U2" s="3">
         <f>T2/S2</f>
         <v>5</v>
       </c>
-      <c r="W2" s="5">
+      <c r="V2" s="5">
         <f>G2/S2</f>
         <v>10</v>
       </c>
-      <c r="X2" s="4" t="str">
-        <f>IF(W2&lt;3600,ROUND(W2,0)&amp;"秒",ROUND(W2/3600,0)&amp;"小时")</f>
+      <c r="W2" s="4" t="str">
+        <f>IF(V2&lt;3600,ROUND(V2,0)&amp;"秒",ROUND(V2/3600,0)&amp;"小时")</f>
         <v>10秒</v>
       </c>
+      <c r="X2">
+        <v>100</v>
+      </c>
       <c r="Y2">
-        <v>100</v>
-      </c>
-      <c r="Z2">
         <f>INT(100*POWER(1.17,F2-1)+0.5)</f>
         <v>100</v>
       </c>
+      <c r="AA2">
+        <v>2000</v>
+      </c>
       <c r="AB2">
-        <v>2000</v>
-      </c>
-      <c r="AC2">
         <f>INT(2000*POWER(1.17,F2-1)+0.5)</f>
         <v>2000</v>
       </c>
+      <c r="AD2">
+        <v>10000</v>
+      </c>
       <c r="AE2">
+        <f>INT(10000*POWER(1.17,F2-1)+0.5)</f>
         <v>10000</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AF8" si="1">INT(10000*POWER(1.17,F2-1)+0.5)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
       <c r="F3">
         <v>2</v>
       </c>
@@ -1289,52 +1518,52 @@
         <v>123</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ref="R3:R31" si="2">5*POWER(0.9838,F3-1)</f>
+        <f t="shared" ref="R3:R31" si="1">5*POWER(0.9838,F3-1)</f>
         <v>4.9190000000000005</v>
       </c>
       <c r="S3" s="3">
-        <v>25</v>
+        <f t="shared" ref="S3:S31" si="2">ROUNDUP(5*POWER(2.16,F3-1),-1)</f>
+        <v>20</v>
       </c>
       <c r="T3" s="3">
         <f>ROUNDUP(R3*S3,0)</f>
-        <v>123</v>
-      </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3">
-        <f t="shared" ref="V3:V31" si="3">T3/S3</f>
-        <v>4.92</v>
-      </c>
-      <c r="W3" s="5">
-        <f t="shared" ref="W3:W31" si="4">G3/S3</f>
-        <v>80</v>
-      </c>
-      <c r="X3" s="4" t="str">
-        <f t="shared" ref="X3:X31" si="5">IF(W3&lt;3600,ROUND(W3,0)&amp;"秒",ROUND(W3/3600,0)&amp;"小时")</f>
-        <v>80秒</v>
+        <v>99</v>
+      </c>
+      <c r="U3" s="3">
+        <f>T3/S3</f>
+        <v>4.95</v>
+      </c>
+      <c r="V3" s="5">
+        <f>G3/S3</f>
+        <v>100</v>
+      </c>
+      <c r="W3" s="4" t="str">
+        <f t="shared" ref="W3:W31" si="3">IF(V3&lt;3600,ROUND(V3,0)&amp;"秒",ROUND(V3/3600,0)&amp;"小时")</f>
+        <v>100秒</v>
+      </c>
+      <c r="X3">
+        <v>117</v>
       </c>
       <c r="Y3">
+        <f t="shared" ref="Y3:Y15" si="4">INT(100*POWER(1.17,F3-1)+0.5)</f>
         <v>117</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z15" si="6">INT(100*POWER(1.17,F3-1)+0.5)</f>
-        <v>117</v>
+      <c r="AA3">
+        <v>2340</v>
       </c>
       <c r="AB3">
+        <f t="shared" ref="AB3:AB15" si="5">INT(2000*POWER(1.17,F3-1)+0.5)</f>
         <v>2340</v>
       </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC15" si="7">INT(2000*POWER(1.17,F3-1)+0.5)</f>
-        <v>2340</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AD3" t="s">
         <v>9</v>
       </c>
-      <c r="AF3">
-        <f t="shared" si="1"/>
+      <c r="AE3">
+        <f>INT(10000*POWER(1.17,F3-1)+0.5)</f>
         <v>11700</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1367,52 +1596,52 @@
         <v>283</v>
       </c>
       <c r="R4" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8393122000000002</v>
+      </c>
+      <c r="S4" s="3">
         <f t="shared" si="2"/>
-        <v>4.8393122000000002</v>
-      </c>
-      <c r="S4" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T4" s="3">
         <f>ROUNDUP(R4*S4,0)</f>
-        <v>218</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3">
+        <v>146</v>
+      </c>
+      <c r="U4" s="3">
+        <f>T4/S4</f>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="V4" s="5">
+        <f>G4/S4</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="W4" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.8444444444444441</v>
-      </c>
-      <c r="W4" s="5">
+        <v>333秒</v>
+      </c>
+      <c r="X4">
+        <v>137</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="4"/>
-        <v>222.22222222222223</v>
-      </c>
-      <c r="X4" s="4" t="str">
+        <v>137</v>
+      </c>
+      <c r="AA4">
+        <v>2737</v>
+      </c>
+      <c r="AB4">
         <f t="shared" si="5"/>
-        <v>222秒</v>
-      </c>
-      <c r="Y4">
-        <v>137</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="6"/>
-        <v>137</v>
-      </c>
-      <c r="AB4">
-        <v>2737</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="7"/>
         <v>2738</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" t="s">
         <v>10</v>
       </c>
-      <c r="AF4">
-        <f t="shared" si="1"/>
+      <c r="AE4">
+        <f>INT(10000*POWER(1.17,F4-1)+0.5)</f>
         <v>13689</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
@@ -1442,50 +1671,49 @@
         <v>442</v>
       </c>
       <c r="R5" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7609153423599997</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="2"/>
-        <v>4.7609153423599997</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" ref="S5:S31" si="8">ROUNDUP(10*POWER(2.16,F5-1),-1)</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="T5" s="3">
-        <f t="shared" ref="T5:T31" si="9">ROUNDUP(R5*S5,-1)</f>
-        <v>530</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3">
+        <f t="shared" ref="T5:T31" si="6">ROUNDUP(R5*S5,-1)</f>
+        <v>290</v>
+      </c>
+      <c r="U5" s="3">
+        <f>T5/S5</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="V5" s="5">
+        <f>G5/S5</f>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="W5" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.8181818181818183</v>
-      </c>
-      <c r="W5" s="5">
+        <v>567秒</v>
+      </c>
+      <c r="X5">
+        <v>160</v>
+      </c>
+      <c r="Y5">
         <f t="shared" si="4"/>
-        <v>309.09090909090907</v>
-      </c>
-      <c r="X5" s="4" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB5">
         <f t="shared" si="5"/>
-        <v>309秒</v>
-      </c>
-      <c r="Y5">
-        <v>160</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="7"/>
         <v>3203</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AD5" t="s">
         <v>11</v>
       </c>
-      <c r="AF5">
-        <f t="shared" si="1"/>
+      <c r="AE5">
+        <f>INT(10000*POWER(1.17,F5-1)+0.5)</f>
         <v>16016</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
@@ -1528,50 +1756,49 @@
         <v>969</v>
       </c>
       <c r="R6" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6837885138137683</v>
+      </c>
+      <c r="S6" s="3">
         <f t="shared" si="2"/>
-        <v>4.6837885138137683</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="8"/>
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="T6" s="3">
-        <f t="shared" si="9"/>
-        <v>1040</v>
-      </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="U6" s="3">
+        <f>T6/S6</f>
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="V6" s="5">
+        <f>G6/S6</f>
+        <v>827.27272727272725</v>
+      </c>
+      <c r="W6" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="W6" s="5">
+        <v>827秒</v>
+      </c>
+      <c r="X6">
+        <v>187</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="4"/>
-        <v>413.63636363636363</v>
-      </c>
-      <c r="X6" s="4" t="str">
+        <v>187</v>
+      </c>
+      <c r="AB6">
         <f t="shared" si="5"/>
-        <v>414秒</v>
-      </c>
-      <c r="Y6">
-        <v>187</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="6"/>
-        <v>187</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="7"/>
         <v>3748</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AD6" t="s">
         <v>12</v>
       </c>
-      <c r="AF6">
-        <f t="shared" si="1"/>
+      <c r="AE6">
+        <f>INT(10000*POWER(1.17,F6-1)+0.5)</f>
         <v>18739</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1601,50 +1828,49 @@
         <v>2160</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.6079111398899855</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="8"/>
-        <v>480</v>
+        <f>ROUNDUP(5*POWER(2.16,F7-1),-1)</f>
+        <v>240</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="9"/>
-        <v>2220</v>
-      </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3">
+        <f t="shared" si="6"/>
+        <v>1110</v>
+      </c>
+      <c r="U7" s="3">
+        <f>T7/S7</f>
+        <v>4.625</v>
+      </c>
+      <c r="V7" s="5">
+        <f>G7/S7</f>
+        <v>1691.6666666666667</v>
+      </c>
+      <c r="W7" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.625</v>
-      </c>
-      <c r="W7" s="5">
+        <v>1692秒</v>
+      </c>
+      <c r="X7">
+        <v>219</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="4"/>
-        <v>845.83333333333337</v>
-      </c>
-      <c r="X7" s="4" t="str">
+        <v>219</v>
+      </c>
+      <c r="AB7">
         <f t="shared" si="5"/>
-        <v>846秒</v>
-      </c>
-      <c r="Y7">
-        <v>219</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="6"/>
-        <v>219</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="7"/>
         <v>4385</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AD7" t="s">
         <v>13</v>
       </c>
-      <c r="AF7">
-        <f t="shared" si="1"/>
+      <c r="AE7">
+        <f>INT(10000*POWER(1.17,F7-1)+0.5)</f>
         <v>21924</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
@@ -1677,50 +1903,49 @@
         <v>4701</v>
       </c>
       <c r="R8" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5332629794237675</v>
+      </c>
+      <c r="S8" s="3">
         <f t="shared" si="2"/>
-        <v>4.5332629794237675</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="8"/>
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="9"/>
-        <v>4630</v>
-      </c>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3">
+        <f t="shared" si="6"/>
+        <v>2320</v>
+      </c>
+      <c r="U8" s="3">
+        <f>T8/S8</f>
+        <v>4.5490196078431371</v>
+      </c>
+      <c r="V8" s="5">
+        <f>G8/S8</f>
+        <v>4921.5686274509808</v>
+      </c>
+      <c r="W8" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.5392156862745097</v>
-      </c>
-      <c r="W8" s="5">
+        <v>1小时</v>
+      </c>
+      <c r="X8">
+        <v>257</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="4"/>
-        <v>2460.7843137254904</v>
-      </c>
-      <c r="X8" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>2461秒</v>
-      </c>
-      <c r="Y8">
         <v>257</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="6"/>
-        <v>257</v>
-      </c>
-      <c r="AC8">
+      <c r="AB8">
         <f>INT(2000*POWER(1.17,F8-1)+0.5)</f>
         <v>5130</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AD8" t="s">
         <v>14</v>
       </c>
-      <c r="AF8">
-        <f t="shared" si="1"/>
+      <c r="AE8">
+        <f>INT(10000*POWER(1.17,F8-1)+0.5)</f>
         <v>25652</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>25</v>
       </c>
@@ -1740,43 +1965,42 @@
         <v>8</v>
       </c>
       <c r="R9" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4598241191571022</v>
+      </c>
+      <c r="S9" s="3">
         <f t="shared" si="2"/>
-        <v>4.4598241191571022</v>
-      </c>
-      <c r="S9" s="3">
-        <f t="shared" si="8"/>
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="9"/>
-        <v>9820</v>
-      </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3">
+        <f t="shared" si="6"/>
+        <v>4910</v>
+      </c>
+      <c r="U9" s="3">
+        <f>T9/S9</f>
+        <v>4.4636363636363638</v>
+      </c>
+      <c r="V9" s="5">
+        <f>G9/S9</f>
+        <v>7838.181818181818</v>
+      </c>
+      <c r="W9" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.4636363636363638</v>
-      </c>
-      <c r="W9" s="5">
+        <v>2小时</v>
+      </c>
+      <c r="X9">
+        <v>300</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="4"/>
-        <v>3919.090909090909</v>
-      </c>
-      <c r="X9" s="4" t="str">
+        <v>300</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="5"/>
-        <v>1小时</v>
-      </c>
-      <c r="Y9">
-        <v>300</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="7"/>
         <v>6002</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1804,43 +2028,42 @@
         <v>9</v>
       </c>
       <c r="R10" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3875749684267573</v>
+      </c>
+      <c r="S10" s="3">
         <f t="shared" si="2"/>
-        <v>4.3875749684267573</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="8"/>
-        <v>4740</v>
+        <v>2370</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="9"/>
-        <v>20800</v>
-      </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3">
+        <f t="shared" si="6"/>
+        <v>10400</v>
+      </c>
+      <c r="U10" s="3">
+        <f>T10/S10</f>
+        <v>4.3881856540084385</v>
+      </c>
+      <c r="V10" s="5">
+        <f>G10/S10</f>
+        <v>23628.691983122364</v>
+      </c>
+      <c r="W10" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.3881856540084385</v>
-      </c>
-      <c r="W10" s="5">
+        <v>7小时</v>
+      </c>
+      <c r="X10">
+        <v>351</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="4"/>
-        <v>11814.345991561182</v>
-      </c>
-      <c r="X10" s="4" t="str">
+        <v>351</v>
+      </c>
+      <c r="AB10">
         <f t="shared" si="5"/>
-        <v>3小时</v>
-      </c>
-      <c r="Y10">
-        <v>351</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="6"/>
-        <v>351</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="7"/>
         <v>7023</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>27</v>
       </c>
@@ -1861,48 +2084,47 @@
         <v>10</v>
       </c>
       <c r="R11" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3164962539382437</v>
+      </c>
+      <c r="S11" s="3">
         <f t="shared" si="2"/>
-        <v>4.3164962539382437</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="8"/>
-        <v>10240</v>
+        <v>5120</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="9"/>
-        <v>44210</v>
-      </c>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3">
+        <f t="shared" si="6"/>
+        <v>22110</v>
+      </c>
+      <c r="U11" s="3">
+        <f>T11/S11</f>
+        <v>4.318359375</v>
+      </c>
+      <c r="V11" s="5">
+        <f>G11/S11</f>
+        <v>73632.8125</v>
+      </c>
+      <c r="W11" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.3173828125</v>
-      </c>
-      <c r="W11" s="5">
+        <v>20小时</v>
+      </c>
+      <c r="X11">
+        <v>411</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="4"/>
-        <v>36816.40625</v>
-      </c>
-      <c r="X11" s="4" t="str">
+        <v>411</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="5"/>
-        <v>10小时</v>
-      </c>
-      <c r="Y11">
-        <v>411</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="6"/>
-        <v>411</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="7"/>
         <v>8217</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="9">
-        <f t="shared" ref="C12:C17" si="10">C11*1000</f>
+        <f t="shared" ref="C12:C17" si="7">C11*1000</f>
         <v>1E+27</v>
       </c>
       <c r="E12">
@@ -1924,48 +2146,47 @@
         <v>11</v>
       </c>
       <c r="R12" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2465690146244448</v>
+      </c>
+      <c r="S12" s="3">
         <f t="shared" si="2"/>
-        <v>4.2465690146244448</v>
-      </c>
-      <c r="S12" s="3">
-        <f t="shared" si="8"/>
-        <v>22110</v>
+        <v>11060</v>
       </c>
       <c r="T12" s="3">
-        <f t="shared" si="9"/>
-        <v>93900</v>
-      </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3">
+        <f t="shared" si="6"/>
+        <v>46970</v>
+      </c>
+      <c r="U12" s="3">
+        <f>T12/S12</f>
+        <v>4.2468354430379751</v>
+      </c>
+      <c r="V12" s="5">
+        <f>G12/S12</f>
+        <v>110036.1663652803</v>
+      </c>
+      <c r="W12" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.2469470827679787</v>
-      </c>
-      <c r="W12" s="5">
+        <v>31小时</v>
+      </c>
+      <c r="X12">
+        <v>458</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="4"/>
-        <v>55042.966983265491</v>
-      </c>
-      <c r="X12" s="4" t="str">
+        <v>481</v>
+      </c>
+      <c r="AB12">
         <f t="shared" si="5"/>
-        <v>15小时</v>
-      </c>
-      <c r="Y12">
-        <v>458</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="6"/>
-        <v>481</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="7"/>
         <v>9614</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1E+30</v>
       </c>
       <c r="F13">
@@ -1984,48 +2205,47 @@
         <v>12</v>
       </c>
       <c r="R13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1777745965875281</v>
+      </c>
+      <c r="S13" s="3">
         <f t="shared" si="2"/>
-        <v>4.1777745965875281</v>
-      </c>
-      <c r="S13" s="3">
-        <f t="shared" si="8"/>
-        <v>47760</v>
+        <v>23880</v>
       </c>
       <c r="T13" s="3">
-        <f t="shared" si="9"/>
-        <v>199540</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3">
+        <f t="shared" si="6"/>
+        <v>99770</v>
+      </c>
+      <c r="U13" s="3">
+        <f>T13/S13</f>
+        <v>4.1779731993299833</v>
+      </c>
+      <c r="V13" s="5">
+        <f>G13/S13</f>
+        <v>354731.99329983251</v>
+      </c>
+      <c r="W13" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.1779731993299833</v>
-      </c>
-      <c r="W13" s="5">
+        <v>99小时</v>
+      </c>
+      <c r="X13">
+        <v>509.3</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="4"/>
-        <v>177365.99664991625</v>
-      </c>
-      <c r="X13" s="4" t="str">
+        <v>562</v>
+      </c>
+      <c r="AB13">
         <f t="shared" si="5"/>
-        <v>49小时</v>
-      </c>
-      <c r="Y13">
-        <v>509.3</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="6"/>
-        <v>562</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="7"/>
         <v>11248</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+33</v>
       </c>
       <c r="E14">
@@ -2047,48 +2267,47 @@
         <v>13</v>
       </c>
       <c r="R14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1100946481228098</v>
+      </c>
+      <c r="S14" s="3">
         <f t="shared" si="2"/>
-        <v>4.1100946481228098</v>
-      </c>
-      <c r="S14" s="3">
-        <f t="shared" si="8"/>
-        <v>103150</v>
+        <v>51580</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="9"/>
-        <v>423960</v>
-      </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3">
+        <f t="shared" si="6"/>
+        <v>212000</v>
+      </c>
+      <c r="U14" s="3">
+        <f>T14/S14</f>
+        <v>4.1101202016285381</v>
+      </c>
+      <c r="V14" s="5">
+        <f>G14/S14</f>
+        <v>1143854.2070569987</v>
+      </c>
+      <c r="W14" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.1101308773630638</v>
-      </c>
-      <c r="W14" s="5">
+        <v>318小时</v>
+      </c>
+      <c r="X14">
+        <v>560.6</v>
+      </c>
+      <c r="Y14">
         <f t="shared" si="4"/>
-        <v>571982.54968492489</v>
-      </c>
-      <c r="X14" s="4" t="str">
+        <v>658</v>
+      </c>
+      <c r="AB14">
         <f t="shared" si="5"/>
-        <v>159小时</v>
-      </c>
-      <c r="Y14">
-        <v>560.6</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="6"/>
-        <v>658</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="7"/>
         <v>13160</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
       <c r="F15">
@@ -2107,48 +2326,47 @@
         <v>14</v>
       </c>
       <c r="R15" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0435111148232208</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="2"/>
-        <v>4.0435111148232208</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="8"/>
-        <v>222800</v>
+        <v>111400</v>
       </c>
       <c r="T15" s="3">
-        <f t="shared" si="9"/>
-        <v>900900</v>
-      </c>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3">
+        <f t="shared" si="6"/>
+        <v>450450</v>
+      </c>
+      <c r="U15" s="3">
+        <f>T15/S15</f>
+        <v>4.0435368043087969</v>
+      </c>
+      <c r="V15" s="5">
+        <f>G15/S15</f>
+        <v>1849192.1005385995</v>
+      </c>
+      <c r="W15" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>4.0435368043087969</v>
-      </c>
-      <c r="W15" s="5">
+        <v>514小时</v>
+      </c>
+      <c r="X15">
+        <v>611.9</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="4"/>
-        <v>924596.05026929977</v>
-      </c>
-      <c r="X15" s="4" t="str">
+        <v>770</v>
+      </c>
+      <c r="AB15">
         <f t="shared" si="5"/>
-        <v>257小时</v>
-      </c>
-      <c r="Y15">
-        <v>611.9</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="6"/>
-        <v>770</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="7"/>
         <v>15397</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+39</v>
       </c>
       <c r="E16">
@@ -2167,37 +2385,36 @@
         <v>15</v>
       </c>
       <c r="R16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9780062347630847</v>
+      </c>
+      <c r="S16" s="3">
         <f t="shared" si="2"/>
-        <v>3.9780062347630847</v>
-      </c>
-      <c r="S16" s="3">
-        <f t="shared" si="8"/>
-        <v>481230</v>
+        <v>240620</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="9"/>
-        <v>1914340</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3">
+        <f t="shared" si="6"/>
+        <v>957190</v>
+      </c>
+      <c r="U16" s="3">
+        <f>T16/S16</f>
+        <v>3.9780151275870668</v>
+      </c>
+      <c r="V16" s="5">
+        <f>G16/S16</f>
+        <v>3133571.6066827364</v>
+      </c>
+      <c r="W16" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.9780146707395634</v>
-      </c>
-      <c r="W16" s="5">
-        <f t="shared" si="4"/>
-        <v>1566818.3612825468</v>
-      </c>
-      <c r="X16" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>435小时</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+        <v>870小时</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1E+42</v>
       </c>
       <c r="F17">
@@ -2213,32 +2430,31 @@
         <v>16</v>
       </c>
       <c r="R17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9135625337599222</v>
+      </c>
+      <c r="S17" s="3">
         <f t="shared" si="2"/>
-        <v>3.9135625337599222</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="8"/>
-        <v>1039460</v>
+        <v>519730</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" si="9"/>
-        <v>4068000</v>
-      </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3">
+        <f t="shared" si="6"/>
+        <v>2034000</v>
+      </c>
+      <c r="U17" s="3">
+        <f>T17/S17</f>
+        <v>3.9135705077636467</v>
+      </c>
+      <c r="V17" s="5">
+        <f>G17/S17</f>
+        <v>5468223.8854789985</v>
+      </c>
+      <c r="W17" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.9135705077636467</v>
-      </c>
-      <c r="W17" s="5">
-        <f t="shared" si="4"/>
-        <v>2734111.9427394993</v>
-      </c>
-      <c r="X17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>759小时</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+        <v>1519小时</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>9</v>
       </c>
@@ -2255,32 +2471,31 @@
         <v>17</v>
       </c>
       <c r="R18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8501628207130123</v>
+      </c>
+      <c r="S18" s="3">
         <f t="shared" si="2"/>
-        <v>3.8501628207130123</v>
-      </c>
-      <c r="S18" s="3">
-        <f t="shared" si="8"/>
-        <v>2245230</v>
+        <v>1122620</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="9"/>
-        <v>8644510</v>
-      </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3">
+        <f t="shared" si="6"/>
+        <v>4322270</v>
+      </c>
+      <c r="U18" s="3">
+        <f>T18/S18</f>
+        <v>3.8501630115266074</v>
+      </c>
+      <c r="V18" s="5">
+        <f>G18/S18</f>
+        <v>11580053.802711515</v>
+      </c>
+      <c r="W18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.8501667980563239</v>
-      </c>
-      <c r="W18" s="5">
-        <f t="shared" si="4"/>
-        <v>5790052.689479474</v>
-      </c>
-      <c r="X18" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>1608小时</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+        <v>3217小时</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>18</v>
       </c>
@@ -2294,32 +2509,31 @@
         <v>18</v>
       </c>
       <c r="R19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7877901830174614</v>
+      </c>
+      <c r="S19" s="3">
         <f t="shared" si="2"/>
-        <v>3.7877901830174614</v>
-      </c>
-      <c r="S19" s="3">
-        <f t="shared" si="8"/>
-        <v>4849690</v>
+        <v>2424850</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" si="9"/>
-        <v>18369610</v>
-      </c>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3">
+        <f t="shared" si="6"/>
+        <v>9184830</v>
+      </c>
+      <c r="U19" s="3">
+        <f>T19/S19</f>
+        <v>3.7877930593644966</v>
+      </c>
+      <c r="V19" s="5">
+        <f>G19/S19</f>
+        <v>28455368.373301443</v>
+      </c>
+      <c r="W19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.7877905598089776</v>
-      </c>
-      <c r="W19" s="5">
-        <f t="shared" si="4"/>
-        <v>14227713.523957202</v>
-      </c>
-      <c r="X19" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3952小时</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+        <v>7904小时</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>10</v>
       </c>
@@ -2336,32 +2550,31 @@
         <v>19</v>
       </c>
       <c r="R20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7264279820525785</v>
+      </c>
+      <c r="S20" s="3">
         <f t="shared" si="2"/>
-        <v>3.7264279820525785</v>
-      </c>
-      <c r="S20" s="3">
-        <f t="shared" si="8"/>
-        <v>10475330</v>
+        <v>5237670</v>
       </c>
       <c r="T20" s="3">
-        <f t="shared" si="9"/>
-        <v>39035570</v>
-      </c>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3">
+        <f t="shared" si="6"/>
+        <v>19517810</v>
+      </c>
+      <c r="U20" s="3">
+        <f>T20/S20</f>
+        <v>3.7264298819895108</v>
+      </c>
+      <c r="V20" s="5">
+        <f>G20/S20</f>
+        <v>66059908.318011634</v>
+      </c>
+      <c r="W20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.7264286662090838</v>
-      </c>
-      <c r="W20" s="5">
-        <f t="shared" si="4"/>
-        <v>33029985.690188281</v>
-      </c>
-      <c r="X20" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>9175小时</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+        <v>18350小时</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F21">
         <v>20</v>
       </c>
@@ -2375,32 +2588,31 @@
         <v>20</v>
       </c>
       <c r="R21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6660598487433265</v>
+      </c>
+      <c r="S21" s="3">
         <f t="shared" si="2"/>
-        <v>3.6660598487433265</v>
-      </c>
-      <c r="S21" s="3">
-        <f t="shared" si="8"/>
-        <v>22626710</v>
+        <v>11313360</v>
       </c>
       <c r="T21" s="3">
-        <f t="shared" si="9"/>
-        <v>82950880</v>
-      </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3">
+        <f t="shared" si="6"/>
+        <v>41475460</v>
+      </c>
+      <c r="U21" s="3">
+        <f>T21/S21</f>
+        <v>3.6660603039238562</v>
+      </c>
+      <c r="V21" s="5">
+        <f>G21/S21</f>
+        <v>153270116.03979719</v>
+      </c>
+      <c r="W21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.6660601563373554</v>
-      </c>
-      <c r="W21" s="5">
-        <f t="shared" si="4"/>
-        <v>76635091.889187604</v>
-      </c>
-      <c r="X21" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>21288小时</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+        <v>42575小时</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>11</v>
       </c>
@@ -2417,32 +2629,31 @@
         <v>21</v>
       </c>
       <c r="R22" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6066696791936845</v>
+      </c>
+      <c r="S22" s="3">
         <f t="shared" si="2"/>
-        <v>3.6066696791936845</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="8"/>
-        <v>48873680</v>
+        <v>24436840</v>
       </c>
       <c r="T22" s="3">
-        <f t="shared" si="9"/>
-        <v>176271220</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3">
+        <f t="shared" si="6"/>
+        <v>88135610</v>
+      </c>
+      <c r="U22" s="3">
+        <f>T22/S22</f>
+        <v>3.6066696839689585</v>
+      </c>
+      <c r="V22" s="5">
+        <f>G22/S22</f>
+        <v>354914956.27094173</v>
+      </c>
+      <c r="W22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.6066696839689585</v>
-      </c>
-      <c r="W22" s="5">
-        <f t="shared" si="4"/>
-        <v>177457478.13547087</v>
-      </c>
-      <c r="X22" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>49294小时</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+        <v>98587小时</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F23">
         <v>22</v>
       </c>
@@ -2456,32 +2667,31 @@
         <v>22</v>
       </c>
       <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5482416303907476</v>
+      </c>
+      <c r="S23" s="3">
         <f t="shared" si="2"/>
-        <v>3.5482416303907476</v>
-      </c>
-      <c r="S23" s="3">
-        <f t="shared" si="8"/>
-        <v>105567150</v>
+        <v>52783580</v>
       </c>
       <c r="T23" s="3">
-        <f t="shared" si="9"/>
-        <v>374577760</v>
-      </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3">
+        <f t="shared" si="6"/>
+        <v>187288900</v>
+      </c>
+      <c r="U23" s="3">
+        <f>T23/S23</f>
+        <v>3.548241706985392</v>
+      </c>
+      <c r="V23" s="5">
+        <f>G23/S23</f>
+        <v>795701996.71943438</v>
+      </c>
+      <c r="W23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.5482416641919383</v>
-      </c>
-      <c r="W23" s="5">
-        <f t="shared" si="4"/>
-        <v>397851036.04672474</v>
-      </c>
-      <c r="X23" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>110514小时</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+        <v>221028小时</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>12</v>
       </c>
@@ -2498,32 +2708,31 @@
         <v>23</v>
       </c>
       <c r="R24" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4907601159784174</v>
+      </c>
+      <c r="S24" s="3">
         <f t="shared" si="2"/>
-        <v>3.4907601159784174</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="8"/>
-        <v>228025040</v>
+        <v>114012520</v>
       </c>
       <c r="T24" s="3">
-        <f t="shared" si="9"/>
-        <v>795980720</v>
-      </c>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3">
+        <f t="shared" si="6"/>
+        <v>397990360</v>
+      </c>
+      <c r="U24" s="3">
+        <f>T24/S24</f>
+        <v>3.4907601375708563</v>
+      </c>
+      <c r="V24" s="5">
+        <f>G24/S24</f>
+        <v>1850673943.5283072</v>
+      </c>
+      <c r="W24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.4907601375708563</v>
-      </c>
-      <c r="W24" s="5">
-        <f t="shared" si="4"/>
-        <v>925336971.7641536</v>
-      </c>
-      <c r="X24" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>257038小时</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+        <v>514076小时</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>13</v>
       </c>
@@ -2540,32 +2749,31 @@
         <v>24</v>
       </c>
       <c r="R25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4342098020995664</v>
+      </c>
+      <c r="S25" s="3">
         <f t="shared" si="2"/>
-        <v>3.4342098020995664</v>
-      </c>
-      <c r="S25" s="3">
-        <f t="shared" si="8"/>
-        <v>492534070</v>
+        <v>246267040</v>
       </c>
       <c r="T25" s="3">
-        <f t="shared" si="9"/>
-        <v>1691465340</v>
-      </c>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3">
+        <f t="shared" si="6"/>
+        <v>845732690</v>
+      </c>
+      <c r="U25" s="3">
+        <f>T25/S25</f>
+        <v>3.4342098317338774</v>
+      </c>
+      <c r="V25" s="5">
+        <f>G25/S25</f>
+        <v>40606327180.446075</v>
+      </c>
+      <c r="W25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.4342098202465468</v>
-      </c>
-      <c r="W25" s="5">
-        <f t="shared" si="4"/>
-        <v>20303164002.441498</v>
-      </c>
-      <c r="X25" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>5639768小时</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+        <v>11279535小时</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>14</v>
       </c>
@@ -2582,32 +2790,31 @@
         <v>25</v>
       </c>
       <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3785756033055541</v>
+      </c>
+      <c r="S26" s="3">
         <f t="shared" si="2"/>
-        <v>3.3785756033055541</v>
-      </c>
-      <c r="S26" s="3">
-        <f t="shared" si="8"/>
-        <v>1063873590</v>
+        <v>531936800</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="9"/>
-        <v>3594377360</v>
-      </c>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3">
+        <f t="shared" si="6"/>
+        <v>1797188700</v>
+      </c>
+      <c r="U26" s="3">
+        <f>T26/S26</f>
+        <v>3.3785756127419648</v>
+      </c>
+      <c r="V26" s="5">
+        <f>G26/S26</f>
+        <v>970040049870.58618</v>
+      </c>
+      <c r="W26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.3785756069008159</v>
-      </c>
-      <c r="W26" s="5">
-        <f t="shared" si="4"/>
-        <v>485020029494.29358</v>
-      </c>
-      <c r="X26" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>134727786小时</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+        <v>269455569小时</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>15</v>
       </c>
@@ -2624,32 +2831,31 @@
         <v>26</v>
       </c>
       <c r="R27" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3238426785320039</v>
+      </c>
+      <c r="S27" s="3">
         <f t="shared" si="2"/>
-        <v>3.3238426785320039</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="8"/>
-        <v>2297966960</v>
+        <v>1148983480</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="9"/>
-        <v>7638080660</v>
-      </c>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3">
+        <f t="shared" si="6"/>
+        <v>3819040330</v>
+      </c>
+      <c r="U27" s="3">
+        <f>T27/S27</f>
+        <v>3.3238426804883217</v>
+      </c>
+      <c r="V27" s="5">
+        <f>G27/S27</f>
+        <v>21758363314327.199</v>
+      </c>
+      <c r="W27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.3238426804883217</v>
-      </c>
-      <c r="W27" s="5">
-        <f t="shared" si="4"/>
-        <v>10879181657163.6</v>
-      </c>
-      <c r="X27" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>3021994905小时</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+        <v>6043989810小时</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>16</v>
       </c>
@@ -2666,32 +2872,31 @@
         <v>27</v>
       </c>
       <c r="R28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2699964271397857</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="2"/>
-        <v>3.2699964271397857</v>
-      </c>
-      <c r="S28" s="3">
-        <f t="shared" si="8"/>
-        <v>4963608620</v>
+        <v>2481804310</v>
       </c>
       <c r="T28" s="3">
-        <f t="shared" si="9"/>
-        <v>16230982460</v>
-      </c>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3">
+        <f t="shared" si="6"/>
+        <v>8115491230</v>
+      </c>
+      <c r="U28" s="3">
+        <f>T28/S28</f>
+        <v>3.2699964285258254</v>
+      </c>
+      <c r="V28" s="5">
+        <f>G28/S28</f>
+        <v>48351918608764.125</v>
+      </c>
+      <c r="W28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.2699964285258254</v>
-      </c>
-      <c r="W28" s="5">
-        <f t="shared" si="4"/>
-        <v>24175959304382.062</v>
-      </c>
-      <c r="X28" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>6715544251小时</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+        <v>13431088502小时</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F29">
         <v>28</v>
       </c>
@@ -2705,32 +2910,31 @@
         <v>28</v>
       </c>
       <c r="R29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2170224850201206</v>
+      </c>
+      <c r="S29" s="3">
         <f t="shared" si="2"/>
-        <v>3.2170224850201206</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="8"/>
-        <v>10721394620</v>
+        <v>5360697310</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="9"/>
-        <v>34490967570</v>
-      </c>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3">
+        <f t="shared" si="6"/>
+        <v>17245483790</v>
+      </c>
+      <c r="U29" s="3">
+        <f>T29/S29</f>
+        <v>3.2170224865764712</v>
+      </c>
+      <c r="V29" s="5">
+        <f>G29/S29</f>
+        <v>117522024387532.53</v>
+      </c>
+      <c r="W29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.2170224856437568</v>
-      </c>
-      <c r="W29" s="5">
-        <f t="shared" si="4"/>
-        <v>58761012193766.266</v>
-      </c>
-      <c r="X29" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>16322503387小时</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+        <v>32645006774小时</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F30">
         <v>29</v>
       </c>
@@ -2744,32 +2948,31 @@
         <v>29</v>
       </c>
       <c r="R30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.164906720762795</v>
+      </c>
+      <c r="S30" s="3">
         <f t="shared" si="2"/>
-        <v>3.164906720762795</v>
-      </c>
-      <c r="S30" s="3">
-        <f t="shared" si="8"/>
-        <v>23158212370</v>
+        <v>11579106190</v>
       </c>
       <c r="T30" s="3">
-        <f t="shared" si="9"/>
-        <v>73293581980</v>
-      </c>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3">
+        <f t="shared" si="6"/>
+        <v>36646791010</v>
+      </c>
+      <c r="U30" s="3">
+        <f>T30/S30</f>
+        <v>3.1649067215264912</v>
+      </c>
+      <c r="V30" s="5">
+        <f>G30/S30</f>
+        <v>100353168969426.3</v>
+      </c>
+      <c r="W30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.1649067211658877</v>
-      </c>
-      <c r="W30" s="5">
-        <f t="shared" si="4"/>
-        <v>50176584506380.016</v>
-      </c>
-      <c r="X30" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>13937940141小时</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+        <v>27875880269小时</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F31">
         <v>30</v>
       </c>
@@ -2783,29 +2986,28 @@
         <v>30</v>
       </c>
       <c r="R31" s="1">
+        <f t="shared" si="1"/>
+        <v>3.113635231886438</v>
+      </c>
+      <c r="S31" s="3">
         <f t="shared" si="2"/>
-        <v>3.113635231886438</v>
-      </c>
-      <c r="S31" s="3">
-        <f t="shared" si="8"/>
-        <v>50021738720</v>
+        <v>25010869360</v>
       </c>
       <c r="T31" s="3">
-        <f t="shared" si="9"/>
-        <v>155749448040</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3">
+        <f t="shared" si="6"/>
+        <v>77874724020</v>
+      </c>
+      <c r="U31" s="3">
+        <f>T31/S31</f>
+        <v>3.1136352319102274</v>
+      </c>
+      <c r="V31" s="5">
+        <f>G31/S31</f>
+        <v>599739248727977.87</v>
+      </c>
+      <c r="W31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>3.1136352319102274</v>
-      </c>
-      <c r="W31" s="5">
-        <f t="shared" si="4"/>
-        <v>299869624363988.94</v>
-      </c>
-      <c r="X31" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>83297117879小时</v>
+        <v>166594235758小时</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4461,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5263,4 +5465,943 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14">
+        <v>100</v>
+      </c>
+      <c r="E4" s="14">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14">
+        <v>50</v>
+      </c>
+      <c r="G4" s="14">
+        <v>5</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C5" s="27">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="14">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14">
+        <v>99</v>
+      </c>
+      <c r="G5" s="14">
+        <v>4.95</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>6</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="27">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="14">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14">
+        <v>146</v>
+      </c>
+      <c r="G6" s="14">
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="H6" s="14">
+        <v>150</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="27">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14">
+        <v>34000</v>
+      </c>
+      <c r="E7" s="14">
+        <v>60</v>
+      </c>
+      <c r="F7" s="14">
+        <v>290</v>
+      </c>
+      <c r="G7" s="14">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H7" s="14">
+        <v>400</v>
+      </c>
+      <c r="I7" s="14">
+        <v>8</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="27">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>91000</v>
+      </c>
+      <c r="E8" s="14">
+        <v>110</v>
+      </c>
+      <c r="F8" s="14">
+        <v>520</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="H8" s="14">
+        <v>800</v>
+      </c>
+      <c r="I8" s="14">
+        <v>9</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" s="27">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>406000</v>
+      </c>
+      <c r="E9" s="14">
+        <v>240</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1110</v>
+      </c>
+      <c r="G9" s="14">
+        <v>4.625</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="14">
+        <v>10</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="27">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2510000</v>
+      </c>
+      <c r="E10" s="14">
+        <v>510</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2320</v>
+      </c>
+      <c r="G10" s="14">
+        <v>4.5490196078431371</v>
+      </c>
+      <c r="H10" s="14">
+        <v>4600</v>
+      </c>
+      <c r="I10" s="14">
+        <v>11</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C11" s="27">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14">
+        <v>8622000</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1100</v>
+      </c>
+      <c r="F11" s="14">
+        <v>4910</v>
+      </c>
+      <c r="G11" s="14">
+        <v>4.4636363636363638</v>
+      </c>
+      <c r="H11" s="14">
+        <v>11000</v>
+      </c>
+      <c r="I11" s="14">
+        <v>12</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C12" s="27">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14">
+        <v>56000000</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2370</v>
+      </c>
+      <c r="F12" s="14">
+        <v>10400</v>
+      </c>
+      <c r="G12" s="14">
+        <v>4.3881856540084385</v>
+      </c>
+      <c r="H12" s="14">
+        <v>25000</v>
+      </c>
+      <c r="I12" s="14">
+        <v>13</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C13" s="27">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14">
+        <v>377000000</v>
+      </c>
+      <c r="E13" s="14">
+        <v>5120</v>
+      </c>
+      <c r="F13" s="14">
+        <v>22110</v>
+      </c>
+      <c r="G13" s="14">
+        <v>4.318359375</v>
+      </c>
+      <c r="H13" s="14">
+        <v>60000</v>
+      </c>
+      <c r="I13" s="14">
+        <v>14</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C14" s="27">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1217000000</v>
+      </c>
+      <c r="E14" s="14">
+        <v>11060</v>
+      </c>
+      <c r="F14" s="14">
+        <v>46970</v>
+      </c>
+      <c r="G14" s="14">
+        <v>4.2468354430379751</v>
+      </c>
+      <c r="H14" s="14">
+        <v>130000</v>
+      </c>
+      <c r="I14" s="14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C15" s="27">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14">
+        <v>8471000000</v>
+      </c>
+      <c r="E15" s="14">
+        <v>23880</v>
+      </c>
+      <c r="F15" s="14">
+        <v>99770</v>
+      </c>
+      <c r="G15" s="14">
+        <v>4.1779731993299833</v>
+      </c>
+      <c r="H15" s="14">
+        <v>320000</v>
+      </c>
+      <c r="I15" s="14">
+        <v>16</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C16" s="27">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14">
+        <v>59000000000</v>
+      </c>
+      <c r="E16" s="14">
+        <v>51580</v>
+      </c>
+      <c r="F16" s="14">
+        <v>212000</v>
+      </c>
+      <c r="G16" s="14">
+        <v>4.1101202016285381</v>
+      </c>
+      <c r="H16" s="14">
+        <v>730000</v>
+      </c>
+      <c r="I16" s="14">
+        <v>17</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C17" s="27">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14">
+        <v>206000000000</v>
+      </c>
+      <c r="E17" s="14">
+        <v>111400</v>
+      </c>
+      <c r="F17" s="14">
+        <v>450450</v>
+      </c>
+      <c r="G17" s="14">
+        <v>4.0435368043087969</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1700000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>18</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C18" s="27">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14">
+        <v>754000000000</v>
+      </c>
+      <c r="E18" s="14">
+        <v>240620</v>
+      </c>
+      <c r="F18" s="14">
+        <v>957190</v>
+      </c>
+      <c r="G18" s="14">
+        <v>3.9780151275870668</v>
+      </c>
+      <c r="H18" s="14">
+        <v>4000000</v>
+      </c>
+      <c r="I18" s="14">
+        <v>19</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C19" s="27">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2842000000000</v>
+      </c>
+      <c r="E19" s="14">
+        <v>519730</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2034000</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3.9135705077636467</v>
+      </c>
+      <c r="H19" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="I19" s="14">
+        <v>20</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C20" s="27">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14">
+        <v>13000000000000</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1122620</v>
+      </c>
+      <c r="F20" s="14">
+        <v>4322270</v>
+      </c>
+      <c r="G20" s="14">
+        <v>3.8501630115266074</v>
+      </c>
+      <c r="H20" s="14">
+        <v>16000000</v>
+      </c>
+      <c r="I20" s="14">
+        <v>21</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" s="27">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14">
+        <v>69000000000000</v>
+      </c>
+      <c r="E21" s="14">
+        <v>2424850</v>
+      </c>
+      <c r="F21" s="14">
+        <v>9184830</v>
+      </c>
+      <c r="G21" s="14">
+        <v>3.7877930593644966</v>
+      </c>
+      <c r="H21" s="14">
+        <v>22000000</v>
+      </c>
+      <c r="I21" s="14">
+        <v>22</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="27">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14">
+        <v>346000000000000</v>
+      </c>
+      <c r="E22" s="14">
+        <v>5237670</v>
+      </c>
+      <c r="F22" s="14">
+        <v>19517810</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3.7264298819895108</v>
+      </c>
+      <c r="H22" s="14">
+        <v>28000000</v>
+      </c>
+      <c r="I22" s="14">
+        <v>23</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C23" s="27">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1734000000000000</v>
+      </c>
+      <c r="E23" s="14">
+        <v>11313360</v>
+      </c>
+      <c r="F23" s="14">
+        <v>41475460</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3.6660603039238562</v>
+      </c>
+      <c r="H23" s="14">
+        <v>34000000</v>
+      </c>
+      <c r="I23" s="14">
+        <v>24</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="27">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14">
+        <v>8673000000000000</v>
+      </c>
+      <c r="E24" s="14">
+        <v>24436840</v>
+      </c>
+      <c r="F24" s="14">
+        <v>88135610</v>
+      </c>
+      <c r="G24" s="14">
+        <v>3.6066696839689585</v>
+      </c>
+      <c r="H24" s="14">
+        <v>40000000</v>
+      </c>
+      <c r="I24" s="14">
+        <v>25</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="27">
+        <v>22</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4.2E+16</v>
+      </c>
+      <c r="E25" s="14">
+        <v>52783580</v>
+      </c>
+      <c r="F25" s="14">
+        <v>187288900</v>
+      </c>
+      <c r="G25" s="14">
+        <v>3.548241706985392</v>
+      </c>
+      <c r="H25" s="14">
+        <v>46000000</v>
+      </c>
+      <c r="I25" s="14">
+        <v>26</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" s="27">
+        <v>23</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2.11E+17</v>
+      </c>
+      <c r="E26" s="14">
+        <v>114012520</v>
+      </c>
+      <c r="F26" s="14">
+        <v>397990360</v>
+      </c>
+      <c r="G26" s="14">
+        <v>3.4907601375708563</v>
+      </c>
+      <c r="H26" s="14">
+        <v>52000000</v>
+      </c>
+      <c r="I26" s="14">
+        <v>27</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" s="27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1E+19</v>
+      </c>
+      <c r="E27" s="14">
+        <v>246267040</v>
+      </c>
+      <c r="F27" s="14">
+        <v>845732690</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3.4342098317338774</v>
+      </c>
+      <c r="H27" s="14">
+        <v>58000000</v>
+      </c>
+      <c r="I27" s="14">
+        <v>28</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="27">
+        <v>25</v>
+      </c>
+      <c r="D28" s="14">
+        <v>5.16E+20</v>
+      </c>
+      <c r="E28" s="14">
+        <v>531936800</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1797188700</v>
+      </c>
+      <c r="G28" s="14">
+        <v>3.3785756127419648</v>
+      </c>
+      <c r="H28" s="14">
+        <v>64000000</v>
+      </c>
+      <c r="I28" s="14">
+        <v>29</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" s="27">
+        <v>26</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2.4999999999999998E+22</v>
+      </c>
+      <c r="E29" s="14">
+        <v>1148983480</v>
+      </c>
+      <c r="F29" s="14">
+        <v>3819040330</v>
+      </c>
+      <c r="G29" s="14">
+        <v>3.3238426804883217</v>
+      </c>
+      <c r="H29" s="14">
+        <v>70000000</v>
+      </c>
+      <c r="I29" s="14">
+        <v>30</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C30" s="27">
+        <v>27</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1.2E+23</v>
+      </c>
+      <c r="E30" s="14">
+        <v>2481804310</v>
+      </c>
+      <c r="F30" s="14">
+        <v>8115491230</v>
+      </c>
+      <c r="G30" s="14">
+        <v>3.2699964285258254</v>
+      </c>
+      <c r="H30" s="14">
+        <v>76000000</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C31" s="27">
+        <v>28</v>
+      </c>
+      <c r="D31" s="14">
+        <v>6.3000000000000004E+23</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5360697310</v>
+      </c>
+      <c r="F31" s="14">
+        <v>17245483790</v>
+      </c>
+      <c r="G31" s="14">
+        <v>3.2170224865764712</v>
+      </c>
+      <c r="H31" s="14">
+        <v>82000000</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="27">
+        <v>29</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1.162E+24</v>
+      </c>
+      <c r="E32" s="14">
+        <v>11579106190</v>
+      </c>
+      <c r="F32" s="14">
+        <v>36646791010</v>
+      </c>
+      <c r="G32" s="14">
+        <v>3.1649067215264912</v>
+      </c>
+      <c r="H32" s="14">
+        <v>88000000</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="J32" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C33" s="27">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1.5E+25</v>
+      </c>
+      <c r="E33" s="14">
+        <v>25010869360</v>
+      </c>
+      <c r="F33" s="14">
+        <v>77874724020</v>
+      </c>
+      <c r="G33" s="14">
+        <v>3.1136352319102274</v>
+      </c>
+      <c r="H33" s="14">
+        <v>94000000</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>